--- a/tabular/genus/copi-refseqs-side-data.xlsx
+++ b/tabular/genus/copi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01249452-C139-0A45-A834-52C81D2525F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB3CC9-2C17-F041-A5B0-BF927E83A07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2337,7 +2337,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/copi-refseqs-side-data.xlsx
+++ b/tabular/genus/copi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB3CC9-2C17-F041-A5B0-BF927E83A07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F1E54-4F1F-7540-9E06-64E2C7F7F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2337,7 +2337,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/copi-refseqs-side-data.xlsx
+++ b/tabular/genus/copi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F1E54-4F1F-7540-9E06-64E2C7F7F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA02BB7C-E8AF-8443-8646-015E93385F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
-  <si>
-    <t>accession-ID</t>
-  </si>
   <si>
     <t>virus_name</t>
   </si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Bovine parvovirus</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -2336,9 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2357,75 +2355,75 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>

--- a/tabular/genus/copi-refseqs-side-data.xlsx
+++ b/tabular/genus/copi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA02BB7C-E8AF-8443-8646-015E93385F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78116554-2D6C-A740-A88B-F2A9D45D9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>virus_name</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>sequenceID</t>
+  </si>
+  <si>
+    <t>virus_subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -2334,9 +2340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2344,16 +2352,16 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2370,28 +2378,31 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2408,10 +2419,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -2425,13 +2436,16 @@
       <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="b">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L2">
-    <sortCondition ref="H2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M2">
+    <sortCondition ref="I2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tabular/genus/copi-refseqs-side-data.xlsx
+++ b/tabular/genus/copi-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78116554-2D6C-A740-A88B-F2A9D45D9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A80D45-0B1B-7E4E-B352-A56F50C50CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>virus_name</t>
   </si>
@@ -94,6 +94,81 @@
   </si>
   <si>
     <t>Parvovirinae</t>
+  </si>
+  <si>
+    <t>NC_055518</t>
+  </si>
+  <si>
+    <t>NC_031959</t>
+  </si>
+  <si>
+    <t>NC_023860</t>
+  </si>
+  <si>
+    <t>NC_014665</t>
+  </si>
+  <si>
+    <t>MW256660</t>
+  </si>
+  <si>
+    <t>MN615703</t>
+  </si>
+  <si>
+    <t>KM035804</t>
+  </si>
+  <si>
+    <t>Sesavirus</t>
+  </si>
+  <si>
+    <t>SesaPv</t>
+  </si>
+  <si>
+    <t>Bosavirus</t>
+  </si>
+  <si>
+    <t>Ungulate copiparvovirus 5 Bosavirus</t>
+  </si>
+  <si>
+    <t>Roe deer copiparvovirus</t>
+  </si>
+  <si>
+    <t>Ungulate copiparvovirus 2</t>
+  </si>
+  <si>
+    <t>Ungulate copiparvovirus 4 (PPV6)</t>
+  </si>
+  <si>
+    <t>PPV6</t>
+  </si>
+  <si>
+    <t>Ungulate copiparvovirus 3</t>
+  </si>
+  <si>
+    <t>PPV4</t>
+  </si>
+  <si>
+    <t>Sea lion</t>
+  </si>
+  <si>
+    <t>Sus scrofa</t>
+  </si>
+  <si>
+    <t>Equus cabalus</t>
+  </si>
+  <si>
+    <t>Ungulate copiparvovirus 6 (EqPv-H)</t>
+  </si>
+  <si>
+    <t>EqPv-H</t>
+  </si>
+  <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>Roe deer</t>
+  </si>
+  <si>
+    <t>BosCopiPV</t>
   </si>
 </sst>
 </file>
@@ -2340,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2443,6 +2518,293 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M2">
     <sortCondition ref="I2"/>

--- a/tabular/genus/copi-refseqs-side-data.xlsx
+++ b/tabular/genus/copi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A80D45-0B1B-7E4E-B352-A56F50C50CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889850ED-FA1D-8645-92B4-A4B9223CAF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2418,7 +2418,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/genus/copi-refseqs-side-data.xlsx
+++ b/tabular/genus/copi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889850ED-FA1D-8645-92B4-A4B9223CAF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A355AB-B710-C145-9833-9DF9698E3081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="8500" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>NK</t>
   </si>
   <si>
-    <t>MG972981</t>
-  </si>
-  <si>
     <t>Copiparvovirus</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>BosCopiPV</t>
+  </si>
+  <si>
+    <t>NC_006259</t>
   </si>
 </sst>
 </file>
@@ -2417,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2438,7 +2438,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -2479,25 +2479,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -2520,25 +2520,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -2561,25 +2561,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -2602,25 +2602,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -2643,25 +2643,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -2684,14 +2684,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -2725,25 +2725,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -2766,25 +2766,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
